--- a/po_analysis_by_asin/B0BV8WVT8C_po_data.xlsx
+++ b/po_analysis_by_asin/B0BV8WVT8C_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,41 +540,9 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B15" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B16" t="n">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45137.99999999999</v>
-      </c>
-      <c r="B17" t="n">
         <v>540</v>
       </c>
     </row>
@@ -646,7 +614,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>860</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -654,7 +622,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1910</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BV8WVT8C_po_data.xlsx
+++ b/po_analysis_by_asin/B0BV8WVT8C_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -573,7 +574,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -623,6 +624,327 @@
       </c>
       <c r="B7" t="n">
         <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-227.5984874810388</v>
+      </c>
+      <c r="D2" t="n">
+        <v>130.1972359667564</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-175.8766190904722</v>
+      </c>
+      <c r="D3" t="n">
+        <v>177.6068544014902</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-174.6551256129793</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.3566237306973</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>70</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-121.7808823939456</v>
+      </c>
+      <c r="D5" t="n">
+        <v>237.9593099729635</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>106</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-70.62482955813765</v>
+      </c>
+      <c r="D6" t="n">
+        <v>293.5413726314707</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>124</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-50.69268524986472</v>
+      </c>
+      <c r="D7" t="n">
+        <v>309.4984397701356</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>141</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-27.8913574960773</v>
+      </c>
+      <c r="D8" t="n">
+        <v>311.2793341548079</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>159</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-16.2723345994354</v>
+      </c>
+      <c r="D9" t="n">
+        <v>345.661499011789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>177</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.192054104215695</v>
+      </c>
+      <c r="D10" t="n">
+        <v>363.0556993574307</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>195</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.843102694654758</v>
+      </c>
+      <c r="D11" t="n">
+        <v>352.6256052415297</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>231</v>
+      </c>
+      <c r="C12" t="n">
+        <v>53.18746726605176</v>
+      </c>
+      <c r="D12" t="n">
+        <v>411.3431517059602</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>356</v>
+      </c>
+      <c r="C13" t="n">
+        <v>173.4324792247165</v>
+      </c>
+      <c r="D13" t="n">
+        <v>532.6383248537745</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>374</v>
+      </c>
+      <c r="C14" t="n">
+        <v>202.5447311632138</v>
+      </c>
+      <c r="D14" t="n">
+        <v>544.910370206228</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>391</v>
+      </c>
+      <c r="C15" t="n">
+        <v>212.0357201503346</v>
+      </c>
+      <c r="D15" t="n">
+        <v>571.8255208374843</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>409</v>
+      </c>
+      <c r="C16" t="n">
+        <v>243.3097947670885</v>
+      </c>
+      <c r="D16" t="n">
+        <v>599.3442023275821</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>427</v>
+      </c>
+      <c r="C17" t="n">
+        <v>246.7917240841895</v>
+      </c>
+      <c r="D17" t="n">
+        <v>601.1755001419048</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>445</v>
+      </c>
+      <c r="C18" t="n">
+        <v>258.0437501490431</v>
+      </c>
+      <c r="D18" t="n">
+        <v>613.2028270265971</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>463</v>
+      </c>
+      <c r="C19" t="n">
+        <v>278.3308085840644</v>
+      </c>
+      <c r="D19" t="n">
+        <v>627.6427589274093</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>481</v>
+      </c>
+      <c r="C20" t="n">
+        <v>307.7564605343632</v>
+      </c>
+      <c r="D20" t="n">
+        <v>653.0082809540017</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>499</v>
+      </c>
+      <c r="C21" t="n">
+        <v>314.6682733426488</v>
+      </c>
+      <c r="D21" t="n">
+        <v>682.3178836271785</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BV8WVT8C_po_data.xlsx
+++ b/po_analysis_by_asin/B0BV8WVT8C_po_data.xlsx
@@ -637,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,16 +656,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -674,12 +664,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-227.5984874810388</v>
-      </c>
-      <c r="D2" t="n">
-        <v>130.1972359667564</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -688,12 +672,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-175.8766190904722</v>
-      </c>
-      <c r="D3" t="n">
-        <v>177.6068544014902</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -702,12 +680,6 @@
       <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
-        <v>-174.6551256129793</v>
-      </c>
-      <c r="D4" t="n">
-        <v>190.3566237306973</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -716,12 +688,6 @@
       <c r="B5" t="n">
         <v>70</v>
       </c>
-      <c r="C5" t="n">
-        <v>-121.7808823939456</v>
-      </c>
-      <c r="D5" t="n">
-        <v>237.9593099729635</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -730,12 +696,6 @@
       <c r="B6" t="n">
         <v>106</v>
       </c>
-      <c r="C6" t="n">
-        <v>-70.62482955813765</v>
-      </c>
-      <c r="D6" t="n">
-        <v>293.5413726314707</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -744,12 +704,6 @@
       <c r="B7" t="n">
         <v>124</v>
       </c>
-      <c r="C7" t="n">
-        <v>-50.69268524986472</v>
-      </c>
-      <c r="D7" t="n">
-        <v>309.4984397701356</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -758,12 +712,6 @@
       <c r="B8" t="n">
         <v>141</v>
       </c>
-      <c r="C8" t="n">
-        <v>-27.8913574960773</v>
-      </c>
-      <c r="D8" t="n">
-        <v>311.2793341548079</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -772,12 +720,6 @@
       <c r="B9" t="n">
         <v>159</v>
       </c>
-      <c r="C9" t="n">
-        <v>-16.2723345994354</v>
-      </c>
-      <c r="D9" t="n">
-        <v>345.661499011789</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -786,12 +728,6 @@
       <c r="B10" t="n">
         <v>177</v>
       </c>
-      <c r="C10" t="n">
-        <v>-1.192054104215695</v>
-      </c>
-      <c r="D10" t="n">
-        <v>363.0556993574307</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -800,12 +736,6 @@
       <c r="B11" t="n">
         <v>195</v>
       </c>
-      <c r="C11" t="n">
-        <v>3.843102694654758</v>
-      </c>
-      <c r="D11" t="n">
-        <v>352.6256052415297</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -814,12 +744,6 @@
       <c r="B12" t="n">
         <v>231</v>
       </c>
-      <c r="C12" t="n">
-        <v>53.18746726605176</v>
-      </c>
-      <c r="D12" t="n">
-        <v>411.3431517059602</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -828,12 +752,6 @@
       <c r="B13" t="n">
         <v>356</v>
       </c>
-      <c r="C13" t="n">
-        <v>173.4324792247165</v>
-      </c>
-      <c r="D13" t="n">
-        <v>532.6383248537745</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -842,12 +760,6 @@
       <c r="B14" t="n">
         <v>374</v>
       </c>
-      <c r="C14" t="n">
-        <v>202.5447311632138</v>
-      </c>
-      <c r="D14" t="n">
-        <v>544.910370206228</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -856,12 +768,6 @@
       <c r="B15" t="n">
         <v>391</v>
       </c>
-      <c r="C15" t="n">
-        <v>212.0357201503346</v>
-      </c>
-      <c r="D15" t="n">
-        <v>571.8255208374843</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -870,12 +776,6 @@
       <c r="B16" t="n">
         <v>409</v>
       </c>
-      <c r="C16" t="n">
-        <v>243.3097947670885</v>
-      </c>
-      <c r="D16" t="n">
-        <v>599.3442023275821</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -884,12 +784,6 @@
       <c r="B17" t="n">
         <v>427</v>
       </c>
-      <c r="C17" t="n">
-        <v>246.7917240841895</v>
-      </c>
-      <c r="D17" t="n">
-        <v>601.1755001419048</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -898,12 +792,6 @@
       <c r="B18" t="n">
         <v>445</v>
       </c>
-      <c r="C18" t="n">
-        <v>258.0437501490431</v>
-      </c>
-      <c r="D18" t="n">
-        <v>613.2028270265971</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -912,12 +800,6 @@
       <c r="B19" t="n">
         <v>463</v>
       </c>
-      <c r="C19" t="n">
-        <v>278.3308085840644</v>
-      </c>
-      <c r="D19" t="n">
-        <v>627.6427589274093</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -926,12 +808,6 @@
       <c r="B20" t="n">
         <v>481</v>
       </c>
-      <c r="C20" t="n">
-        <v>307.7564605343632</v>
-      </c>
-      <c r="D20" t="n">
-        <v>653.0082809540017</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -939,12 +815,6 @@
       </c>
       <c r="B21" t="n">
         <v>499</v>
-      </c>
-      <c r="C21" t="n">
-        <v>314.6682733426488</v>
-      </c>
-      <c r="D21" t="n">
-        <v>682.3178836271785</v>
       </c>
     </row>
   </sheetData>
